--- a/plot/noise_acc.xlsx
+++ b/plot/noise_acc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lh562\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD67771A-0FFD-405A-972C-4D30CD5CCCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21959CE-534C-452C-84FE-117651C51C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{1D6B27A3-9976-4F40-A0F5-601C69EB4768}"/>
+    <workbookView xWindow="1110" yWindow="2160" windowWidth="16180" windowHeight="9970" xr2:uid="{1D6B27A3-9976-4F40-A0F5-601C69EB4768}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -498,20 +498,20 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>0.26219999999999999</v>
+        <v>0.9929</v>
       </c>
       <c r="C2" s="1">
-        <v>0.26569999999999999</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>0.26200000000000001</v>
+        <v>0.99180000000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.24210000000000001</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="F2">
         <v>0.26219999999999999</v>
@@ -527,32 +527,32 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>0.25009999999999999</v>
+        <v>0.98870000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>0.24590000000000001</v>
+        <v>0.9738</v>
       </c>
       <c r="D3" s="1">
-        <v>0.24590000000000001</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.25750000000000001</v>
+        <v>0.97370000000000001</v>
       </c>
       <c r="F3">
-        <v>0.25009999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.24590000000000001</v>
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.98970000000000002</v>
       </c>
       <c r="H3">
-        <v>0.24590000000000001</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="I3">
-        <v>0.25750000000000001</v>
+        <v>0.98019999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -563,7 +563,6 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
